--- a/Daisy-xls/ResearchPages/Spanish/research-lung-cancer - Spanish.xlsx
+++ b/Daisy-xls/ResearchPages/Spanish/research-lung-cancer - Spanish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>URL</t>
   </si>
@@ -66,31 +66,34 @@
     <t>Instantánea del cáncer de pulmón</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/cancer/instantaneas/pulmon</t>
-  </si>
-  <si>
     <t>Los NIH anuncian el lanzamiento de 3 estudios integrados de medicina de precisión; ALCHEMIST es para pacientes con ciertos tipos de cáncer de pulmón en estadio inicial</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/lanzamiento-ALCHEMIST</t>
-  </si>
-  <si>
     <t>Se lanza Lung-MAP, el primer estudio de medicina de precisión de la Red Nacional de Estudios Clínicos</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/estudio-LungMap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se evitaron cerca de 800 000 muertes debido al descenso en tabaquismo </t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/TobaccoControlCISNETSpanish</t>
-  </si>
-  <si>
     <t>Estudio financiado por los NIH indica que hay una reducción de 20% en la mortalidad por cáncer de pulmón con tomografía computarizada de dosis baja en comparación con rayos X de pecho</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/NLSTprimaryNEJMSpanish</t>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/pulmon</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/lanzamiento-ALCHEMIST</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/estudio-LungMap</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/TobaccoControlCISNETSpanish</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/NLSTprimaryNEJMSpanish</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,95 +173,78 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,121 +548,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.77734375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="64" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="2" width="10.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="44.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>725782</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10">
+        <v>41948</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>819158</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11">
-        <v>41948</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="14">
+        <v>41869</v>
+      </c>
+      <c r="G3" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="18" t="s">
+    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="B4" s="22">
+        <v>790467</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14">
+        <v>41806</v>
+      </c>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22">
+        <v>253781</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8">
-        <v>41869</v>
-      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="14">
+        <v>40982</v>
+      </c>
+      <c r="G5" s="11"/>
     </row>
-    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="18" t="s">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22">
+        <v>87533</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8">
-        <v>41806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14">
-        <v>40982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="E6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="19">
         <v>40723</v>
       </c>
+      <c r="G6" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F17">
-    <sortCondition descending="1" ref="E1"/>
+  <sortState ref="B2:G17">
+    <sortCondition descending="1" ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -689,7 +709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -701,7 +721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
